--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Timeline (day no.)</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Actual tasks rem.</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -68,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$B$1</c:f>
+              <c:f>'Sprint 1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -217,7 +221,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$B$2:$B$21</c:f>
+              <c:f>'Sprint 1'!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -296,7 +300,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$C$1</c:f>
+              <c:f>'Sprint 1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -331,7 +335,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$C$2:$C$21</c:f>
+              <c:f>'Sprint 1'!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1232,13 +1236,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1566,212 +1570,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42982</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>34</v>
       </c>
       <c r="C2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42983</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>ROUND($B$2 - ($B$2/20*A2) - 2, 0)</f>
+      <c r="C3">
+        <f>ROUND($C$2 - ($C$2/20*B2) - 2, 0)</f>
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42984</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B21" si="0">ROUND($B$2 - ($B$2/20*A3) - 2, 0)</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C21" si="0">ROUND($C$2 - ($C$2/20*B3) - 2, 0)</f>
         <v>29</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42985</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42986</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42989</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42990</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42991</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42992</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42993</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42997</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42999</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43003</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43005</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -347,6 +347,21 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,6 +1666,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1663,6 +1681,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1675,6 +1696,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1687,6 +1711,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1698,6 +1725,9 @@
       <c r="C9">
         <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -362,6 +362,36 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,6 +1771,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1753,6 +1786,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1765,6 +1801,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1777,6 +1816,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1789,6 +1831,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1801,6 +1846,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1813,10 +1861,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43003</v>
+        <v>43010</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1825,10 +1876,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43004</v>
+        <v>43011</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1837,10 +1891,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43005</v>
+        <v>43012</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1849,10 +1906,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43006</v>
+        <v>43013</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1862,9 +1922,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43007</v>
+        <v>43014</v>
       </c>
       <c r="B21">
         <v>20</v>

--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Timeline (day no.)</t>
   </si>
@@ -71,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,6 +397,12 @@
                 <c:pt idx="17">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -400,6 +410,604 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-59FA-4239-B8DB-A95A9A0D6D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="351098088"/>
+        <c:axId val="351095792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="351098088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Timeline</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (day no.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351095792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351095792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351098088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47734202408977638"/>
+          <c:y val="0.13897669752225292"/>
+          <c:w val="0.4746867427677573"/>
+          <c:h val="8.6758828818515404E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Burn Down</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10191577034062639"/>
+          <c:y val="0.13548854550360032"/>
+          <c:w val="0.86031720597817574"/>
+          <c:h val="0.70230763964832565"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal tasks rem.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBCA-4EA0-8C78-414AE4273E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual tasks rem.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBCA-4EA0-8C78-414AE4273E6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -774,7 +1382,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1302,6 +2453,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B7EC34-59EC-47B6-9843-A6FFFC51EB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1617,27 +2811,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1921,10 +3115,298 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43014</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43017</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43018</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>ROUND($C$2 - ($C$2/20*B2) - 2, 0)</f>
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43019</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C21" si="0">ROUND($C$2 - ($C$2/20*B3) - 2, 0)</f>
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43021</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43028</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43041</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43042</v>
       </c>
       <c r="B21">
         <v>20</v>

--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -996,10 +996,25 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,7 +3209,7 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,7 +3224,7 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,6 +3238,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3235,6 +3253,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3247,6 +3268,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3259,6 +3283,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3270,6 +3297,9 @@
       <c r="C9">
         <f t="shared" si="0"/>
         <v>19</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -1016,6 +1016,36 @@
                 <c:pt idx="7">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3313,6 +3343,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3325,6 +3358,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3337,6 +3373,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3349,6 +3388,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3361,6 +3403,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3373,6 +3418,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3385,8 +3433,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43038</v>
       </c>
@@ -3397,8 +3448,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43039</v>
       </c>
@@ -3409,8 +3463,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43040</v>
       </c>
@@ -3421,8 +3478,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43041</v>
       </c>
@@ -3434,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43042</v>
       </c>

--- a/Meeting Details/Burn Down Chart.xlsx
+++ b/Meeting Details/Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougm\OneDrive\BIT - Semester 4\IFB299 App Design and Development\Project\ifb299\Meeting Details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f4f8f9765bfce3/BIT - Semester 4/IFB299 App Design and Development/Project/ifb299/Meeting Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -921,21 +921,15 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1041,10 +1035,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,8 +3424,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -3445,8 +3438,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -3460,11 +3452,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>4</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,36 +3466,17 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43041</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43042</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
